--- a/Parts2.xlsx
+++ b/Parts2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\E-Rick Stock Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -474,7 +474,7 @@
     <t>Flexi Model</t>
   </si>
   <si>
-    <t>In stock on 18/9/24</t>
+    <t>Stock</t>
   </si>
 </sst>
 </file>
@@ -876,7 +876,7 @@
   <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Parts2.xlsx
+++ b/Parts2.xlsx
@@ -876,7 +876,7 @@
   <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
